--- a/Definitions/w-Definitions-Python.xlsx
+++ b/Definitions/w-Definitions-Python.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Topics</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>For what python is used for</t>
-  </si>
-  <si>
-    <t>Console applications, scripts, scientific applications, artifical intelligence applications, desktop applications, machine learnings applications, home automation applications</t>
   </si>
   <si>
     <t>Materials to go through</t>
@@ -78,7 +75,68 @@
     <t>Installing Python</t>
   </si>
   <si>
-    <t>1. go to web site- www.python.org
+    <t>open python from cmd/powershell</t>
+  </si>
+  <si>
+    <t>IDLE</t>
+  </si>
+  <si>
+    <t>1. like cmd to run Python
+2. Gets installed along with python
+3. search for IDLE in start -&gt; click it
+4. this will open a window that is similar to cmd/powershell
+5. we can type and execute our programs here</t>
+  </si>
+  <si>
+    <t>Python IDE</t>
+  </si>
+  <si>
+    <t>PyCharm</t>
+  </si>
+  <si>
+    <t>1. open cmd/powershell
+2. type -&gt; python
+3. this is like REPL where we can type and execute our program
+4. exit python -&gt; exit()</t>
+  </si>
+  <si>
+    <t>Installing PyCharm</t>
+  </si>
+  <si>
+    <t>1. go to web site - http://www.jetbrains.com/pycharm/
+2. click on Download button
+3. Download free community edition of PyCharm
+4. Once downloaded - install it. 
+Installation location: C:\Program Files\JetBrains\PyCharm Community Edition 2017.2.3</t>
+  </si>
+  <si>
+    <t>Console applications, machine learnings applications, scripts, artifical intelligence applications, scientific applications, 
+desktop applications, home automation applications</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. go to web site- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>www.python.org</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 2. Under Downlod -&gt; click on Python 3.6.2 (latest as of 18/Sep/2017)
 3. Download the latest version as per OS
 4. check radio button in installation wizard and click on Install
@@ -86,48 +144,27 @@
 6. we should be able to see following output if python installed successfully:
 C:\Users\Admin&gt;python --version
 Python 3.6.2</t>
-  </si>
-  <si>
-    <t>open python from cmd/powershell</t>
-  </si>
-  <si>
-    <t>IDLE</t>
-  </si>
-  <si>
-    <t>1. like cmd to run Python
-2. Gets installed along with python
-3. search for IDLE in start -&gt; click it
-4. this will open a window that is similar to cmd/powershell
-5. we can type and execute our programs here</t>
-  </si>
-  <si>
-    <t>Python IDE</t>
-  </si>
-  <si>
-    <t>PyCharm</t>
-  </si>
-  <si>
-    <t>1. open cmd/powershell
-2. type -&gt; python
-3. this is like REPL where we can type and execute our program
-4. exit python -&gt; exit()</t>
-  </si>
-  <si>
-    <t>Installing PyCharm</t>
-  </si>
-  <si>
-    <t>1. go to web site - http://www.jetbrains.com/pycharm/
-2. click on Download button
-3. Download free community edition of PyCharm
-4. Once downloaded - install it. 
-Installation location: C:\Program Files\JetBrains\PyCharm Community Edition 2017.2.3</t>
+    </r>
+  </si>
+  <si>
+    <t>Indentation</t>
+  </si>
+  <si>
+    <t>Python uses indentaton instead of curly braces</t>
+  </si>
+  <si>
+    <t>True values in python</t>
+  </si>
+  <si>
+    <t>1. any non zero integer is true (zero is false)
+2. any non empty string is true</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +201,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -732,7 +777,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="26"/>
     </row>
@@ -741,7 +786,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -757,8 +802,8 @@
   <dimension ref="A1:B121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -840,80 +885,88 @@
         <v>7</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>11</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="60">
       <c r="A17" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="60">
       <c r="A18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>14</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="8" customFormat="1" ht="120">
       <c r="A19" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="8" customFormat="1" ht="60">
       <c r="A20" s="24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
       <c r="A21" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="8" customFormat="1">
       <c r="A22" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="75">
       <c r="A23" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="12"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="14"/>
+      <c r="A24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30">
+      <c r="A25" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="11"/>

--- a/Definitions/w-Definitions-Python.xlsx
+++ b/Definitions/w-Definitions-Python.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Topics</t>
   </si>
@@ -158,6 +158,21 @@
   <si>
     <t>1. any non zero integer is true (zero is false)
 2. any non empty string is true</t>
+  </si>
+  <si>
+    <t>Types in python</t>
+  </si>
+  <si>
+    <t>complex, bytes and bytearray
+tuple = (3, 5, 1, "jack") ==&gt; immutable
+set and frozenset
+set([3, 4, 5, 1, 2, 4, 5]) == (1, 2, 3, 4, 5) -&gt; passing list to set will remove duplicates and orders the list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Examlpes </t>
+  </si>
+  <si>
+    <t>Refer README.md in PythonPractice repository</t>
   </si>
 </sst>
 </file>
@@ -327,7 +342,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -392,6 +407,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -776,10 +794,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="27"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="22" t="s">
@@ -802,8 +820,8 @@
   <dimension ref="A1:B121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -821,10 +839,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="27"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="9" t="s">
@@ -851,8 +869,8 @@
       <c r="B7" s="5"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="7"/>
@@ -875,10 +893,10 @@
       <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="26"/>
+      <c r="B14" s="27"/>
     </row>
     <row r="15" spans="1:2" ht="30">
       <c r="A15" s="9" t="s">
@@ -968,13 +986,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
+    <row r="26" spans="1:2" ht="60">
+      <c r="A26" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
+      <c r="A27" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="11"/>
@@ -1029,35 +1055,35 @@
       <c r="B40" s="12"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="31"/>
+      <c r="A41" s="32"/>
       <c r="B41" s="12"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="31"/>
+      <c r="A42" s="32"/>
       <c r="B42" s="12"/>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="31"/>
+      <c r="A43" s="32"/>
       <c r="B43" s="12"/>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="31"/>
+      <c r="A44" s="32"/>
       <c r="B44" s="12"/>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="31"/>
+      <c r="A45" s="32"/>
       <c r="B45" s="12"/>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="31"/>
+      <c r="A46" s="32"/>
       <c r="B46" s="14"/>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="31"/>
+      <c r="A47" s="32"/>
       <c r="B47" s="12"/>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="31"/>
+      <c r="A48" s="32"/>
       <c r="B48" s="12"/>
     </row>
     <row r="49" spans="1:2">
@@ -1077,8 +1103,8 @@
       <c r="B52" s="14"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="32"/>
-      <c r="B53" s="33"/>
+      <c r="A53" s="33"/>
+      <c r="B53" s="34"/>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="17"/>
@@ -1113,8 +1139,8 @@
       <c r="B61" s="14"/>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="32"/>
-      <c r="B62" s="33"/>
+      <c r="A62" s="33"/>
+      <c r="B62" s="34"/>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="11"/>
@@ -1205,8 +1231,8 @@
       <c r="B84" s="12"/>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="29"/>
-      <c r="B85" s="30"/>
+      <c r="A85" s="30"/>
+      <c r="B85" s="31"/>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="9"/>
@@ -1261,11 +1287,11 @@
       <c r="B98" s="4"/>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="28"/>
+      <c r="A99" s="29"/>
       <c r="B99" s="4"/>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="28"/>
+      <c r="A100" s="29"/>
       <c r="B100" s="4"/>
     </row>
     <row r="101" spans="1:2">
@@ -1341,11 +1367,11 @@
       <c r="B118" s="4"/>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="27"/>
+      <c r="A120" s="28"/>
       <c r="B120" s="4"/>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="27"/>
+      <c r="A121" s="28"/>
       <c r="B121" s="4"/>
     </row>
   </sheetData>

--- a/Definitions/w-Definitions-Python.xlsx
+++ b/Definitions/w-Definitions-Python.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
-    <sheet name="Materials" sheetId="3" r:id="rId2"/>
-    <sheet name="Python" sheetId="2" r:id="rId3"/>
+    <sheet name="Python" sheetId="2" r:id="rId2"/>
+    <sheet name="Flask" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="95">
   <si>
     <t>Topics</t>
   </si>
@@ -40,12 +40,6 @@
   </si>
   <si>
     <t>For what python is used for</t>
-  </si>
-  <si>
-    <t>Materials to go through</t>
-  </si>
-  <si>
-    <t>Building desktop applications with python</t>
   </si>
   <si>
     <t>PEPS</t>
@@ -172,7 +166,198 @@
     <t xml:space="preserve">Examlpes </t>
   </si>
   <si>
-    <t>Refer README.md in PythonPractice repository</t>
+    <t>Refer README.md in PythonPractice repository in github</t>
+  </si>
+  <si>
+    <t>Python Frameworks</t>
+  </si>
+  <si>
+    <t>Django</t>
+  </si>
+  <si>
+    <t>Flask</t>
+  </si>
+  <si>
+    <t>Python web micro framework</t>
+  </si>
+  <si>
+    <t>Python Pip</t>
+  </si>
+  <si>
+    <t>PyPI</t>
+  </si>
+  <si>
+    <t>Python web framework</t>
+  </si>
+  <si>
+    <t>Flask site</t>
+  </si>
+  <si>
+    <t>http://flask.pocoo.org/</t>
+  </si>
+  <si>
+    <t>Definitions</t>
+  </si>
+  <si>
+    <t>How to install flask package</t>
+  </si>
+  <si>
+    <t>pip</t>
+  </si>
+  <si>
+    <t>package manager for python. This will be installed with Python. Open cmd and type pip3 or pip(python 3), pip(python 2).
+We will install flask using pip.</t>
+  </si>
+  <si>
+    <t>install flask using pip</t>
+  </si>
+  <si>
+    <t>1. open cmd
+2. type "pip install flask"
+3. this will install flask package</t>
+  </si>
+  <si>
+    <t>Successfully installed Jinja2-2.9.6 MarkupSafe-1.0 Werkzeug-0.12.2 click-6.7 flask-0.12.2 itsdangerous-0.24</t>
+  </si>
+  <si>
+    <t>To see all python packages</t>
+  </si>
+  <si>
+    <t>https://pypi.python.org/pypi</t>
+  </si>
+  <si>
+    <t>Virtual Environments</t>
+  </si>
+  <si>
+    <t>Virtual environments allows us to setup independent python environment when we are working on python application.</t>
+  </si>
+  <si>
+    <t>How to work with virtual environments?</t>
+  </si>
+  <si>
+    <t>We need to install virtualenv package using pip</t>
+  </si>
+  <si>
+    <t>pip install virtualenv</t>
+  </si>
+  <si>
+    <t>Creating virtual environment</t>
+  </si>
+  <si>
+    <t>type "virtualenv &lt;env_name&gt;" in cmd</t>
+  </si>
+  <si>
+    <t>Example: cmd&gt; virtualenv python3_env</t>
+  </si>
+  <si>
+    <t>To specify the python to be used in virtual environment</t>
+  </si>
+  <si>
+    <t>virtualenv   --python=python2.7   my_python_course</t>
+  </si>
+  <si>
+    <t>Tip on virtual environments</t>
+  </si>
+  <si>
+    <t>We can keep all python virtual environments in one folder like eclipse workspaces</t>
+  </si>
+  <si>
+    <t>How to use environment</t>
+  </si>
+  <si>
+    <t>cmd&gt; source &lt;virtual_environment_path&gt;/bin/activate</t>
+  </si>
+  <si>
+    <t>Example: cmd&gt; source my_python_course/bin/activate</t>
+  </si>
+  <si>
+    <t>To leave virtual environment</t>
+  </si>
+  <si>
+    <t>type "deactivate"</t>
+  </si>
+  <si>
+    <t>Working with virutal environments in pycharm</t>
+  </si>
+  <si>
+    <t>File -&gt; Settings -&gt; Project Interpreter -&gt; click on gear symbole -&gt; Add Local/Create VirtualEnv</t>
+  </si>
+  <si>
+    <t>Creating an executable file</t>
+  </si>
+  <si>
+    <t>using pyinstalled</t>
+  </si>
+  <si>
+    <t>pyinstaller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pyinstaller is a python package that allows us to create binary executable file from our python program. It is cross platform, so it will create .exe file for windows and .app file for mac. It also works on linux too. </t>
+  </si>
+  <si>
+    <t>install pyinstaller using</t>
+  </si>
+  <si>
+    <t>pip install pyinstaller</t>
+  </si>
+  <si>
+    <t>After installing pyinstaller create exe file</t>
+  </si>
+  <si>
+    <t>Go to project location -&gt; pyinstaller mainClassName.py -&gt; Enter</t>
+  </si>
+  <si>
+    <t>This will give warnings, ignore them. 
+Pyinstaller will create build, dist folders, main.spec file. Our .exe will be present in dist/main folder.</t>
+  </si>
+  <si>
+    <t>In the above process pyinstaller will create many files. To avoid that and to create single .exe file</t>
+  </si>
+  <si>
+    <t>pyinstaller --onefile mainFile.py</t>
+  </si>
+  <si>
+    <t>This will create single .exe file in dist/main folder</t>
+  </si>
+  <si>
+    <t>pyinstaller documentation</t>
+  </si>
+  <si>
+    <t>http://www.pyinstaller.org/</t>
+  </si>
+  <si>
+    <t>Creating setup wizard</t>
+  </si>
+  <si>
+    <t>use InnoSetup
+google for InnoSetup</t>
+  </si>
+  <si>
+    <t>TensorFlow</t>
+  </si>
+  <si>
+    <t>PyQT</t>
+  </si>
+  <si>
+    <t>Pluralsight - completed</t>
+  </si>
+  <si>
+    <t>Python Fundamentals</t>
+  </si>
+  <si>
+    <t>Python – Beyond the Basics</t>
+  </si>
+  <si>
+    <t>Introduction to the Flask Microframework</t>
+  </si>
+  <si>
+    <t>Understanding Machine Learning with Python</t>
+  </si>
+  <si>
+    <t>Advanced Python</t>
+  </si>
+  <si>
+    <t>Python Desktop Application Development</t>
   </si>
 </sst>
 </file>
@@ -342,7 +527,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -402,7 +587,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -410,6 +594,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -425,15 +620,19 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -729,11 +928,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -751,7 +950,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>3</v>
       </c>
     </row>
@@ -759,69 +958,68 @@
       <c r="A3" s="22"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="22"/>
+      <c r="A4" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="30"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="18"/>
+      <c r="A5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="23"/>
+      <c r="A6" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="18"/>
+      <c r="A7" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="18" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:B4"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Topics!A2" display="Up"/>
     <hyperlink ref="A2" location="Python!A1" display="Python"/>
+    <hyperlink ref="A6" location="Flask!A1" display="Flask"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="39.5703125" customWidth="1"/>
-    <col min="2" max="2" width="119.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="27"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B121"/>
+  <dimension ref="A1:B124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -839,50 +1037,70 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="5"/>
+      <c r="B4" s="7" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="A7" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="28" customFormat="1">
+      <c r="A8" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="28" customFormat="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:2" s="28" customFormat="1">
       <c r="A10" s="7"/>
-      <c r="B10" s="5"/>
+      <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="7"/>
@@ -893,234 +1111,308 @@
       <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="27"/>
-    </row>
-    <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="9" t="s">
+      <c r="B17" s="31"/>
+    </row>
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B18" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="60">
+      <c r="A20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="60">
+      <c r="A21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="8" customFormat="1" ht="120">
+      <c r="A22" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="8" customFormat="1" ht="60">
+      <c r="A23" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="75">
+      <c r="A24" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" s="8" customFormat="1">
+      <c r="A25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="75">
+      <c r="A26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="60">
-      <c r="A17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="60">
-      <c r="A18" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" s="8" customFormat="1" ht="120">
-      <c r="A19" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="12" t="s">
+      <c r="B27" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="8" customFormat="1" ht="60">
-      <c r="A20" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" s="8" customFormat="1">
-      <c r="A22" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="75">
-      <c r="A23" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="9" t="s">
+    <row r="28" spans="1:2" ht="30">
+      <c r="A28" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B28" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30">
-      <c r="A25" s="9" t="s">
+    <row r="29" spans="1:2" ht="60">
+      <c r="A29" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B29" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="60">
-      <c r="A26" s="26" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B30" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-    </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
+      <c r="A31" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
+      <c r="A32" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
+      <c r="A33" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="12"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
+      <c r="A35" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="12" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="9"/>
-      <c r="B37" s="12"/>
+      <c r="A37" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="9"/>
-      <c r="B38" s="12"/>
+      <c r="A38" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="9"/>
-      <c r="B39" s="12"/>
+      <c r="A39" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="11"/>
-      <c r="B40" s="12"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="12" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="32"/>
-      <c r="B41" s="12"/>
+      <c r="A41" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="32"/>
-      <c r="B42" s="12"/>
+      <c r="A42" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="32"/>
-      <c r="B43" s="12"/>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="32"/>
-      <c r="B44" s="12"/>
+      <c r="A43" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30">
+      <c r="A44" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="32"/>
-      <c r="B45" s="12"/>
+      <c r="A45" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="32"/>
-      <c r="B46" s="14"/>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="32"/>
-      <c r="B47" s="12"/>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="32"/>
-      <c r="B48" s="12"/>
+      <c r="A46" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="30">
+      <c r="A47" s="36"/>
+      <c r="B47" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="30" customHeight="1">
+      <c r="A48" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="9"/>
-      <c r="B49" s="14"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="12" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="11"/>
-      <c r="B50" s="12"/>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="9"/>
-      <c r="B51" s="14"/>
+      <c r="A50" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="30">
+      <c r="A51" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="9"/>
       <c r="B52" s="14"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="33"/>
-      <c r="B53" s="34"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="12"/>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="17"/>
-      <c r="B54" s="16"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="14"/>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="9"/>
-      <c r="B55" s="15"/>
+      <c r="B55" s="14"/>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="9"/>
-      <c r="B56" s="15"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="38"/>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="9"/>
-      <c r="B57" s="15"/>
+      <c r="A57" s="17"/>
+      <c r="B57" s="16"/>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="9"/>
@@ -1136,34 +1428,34 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="9"/>
-      <c r="B61" s="14"/>
+      <c r="B61" s="15"/>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="33"/>
-      <c r="B62" s="34"/>
+      <c r="A62" s="9"/>
+      <c r="B62" s="15"/>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="11"/>
-      <c r="B63" s="12"/>
+      <c r="A63" s="9"/>
+      <c r="B63" s="15"/>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="11"/>
-      <c r="B64" s="12"/>
+      <c r="A64" s="9"/>
+      <c r="B64" s="14"/>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="11"/>
-      <c r="B65" s="12"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="38"/>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="9"/>
+      <c r="A66" s="11"/>
       <c r="B66" s="12"/>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="9"/>
+      <c r="A67" s="11"/>
       <c r="B67" s="12"/>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="9"/>
+      <c r="A68" s="11"/>
       <c r="B68" s="12"/>
     </row>
     <row r="69" spans="1:2">
@@ -1175,7 +1467,7 @@
       <c r="B70" s="12"/>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="11"/>
+      <c r="A71" s="9"/>
       <c r="B71" s="12"/>
     </row>
     <row r="72" spans="1:2">
@@ -1187,64 +1479,64 @@
       <c r="B73" s="12"/>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="19"/>
-      <c r="B74" s="13"/>
+      <c r="A74" s="11"/>
+      <c r="B74" s="12"/>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="19"/>
-      <c r="B75" s="13"/>
+      <c r="A75" s="9"/>
+      <c r="B75" s="12"/>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="11"/>
+      <c r="A76" s="9"/>
       <c r="B76" s="12"/>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="9"/>
-      <c r="B77" s="12"/>
+      <c r="A77" s="19"/>
+      <c r="B77" s="13"/>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="19"/>
-      <c r="B78" s="21"/>
+      <c r="B78" s="13"/>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="19"/>
-      <c r="B79" s="21"/>
+      <c r="A79" s="11"/>
+      <c r="B79" s="12"/>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="11"/>
+      <c r="A80" s="9"/>
       <c r="B80" s="12"/>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="11"/>
-      <c r="B81" s="12"/>
+      <c r="A81" s="19"/>
+      <c r="B81" s="21"/>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="9"/>
-      <c r="B82" s="12"/>
+      <c r="A82" s="19"/>
+      <c r="B82" s="21"/>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="10"/>
+      <c r="A83" s="11"/>
       <c r="B83" s="12"/>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="10"/>
+      <c r="A84" s="11"/>
       <c r="B84" s="12"/>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="30"/>
-      <c r="B85" s="31"/>
+      <c r="A85" s="9"/>
+      <c r="B85" s="12"/>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="9"/>
+      <c r="A86" s="10"/>
       <c r="B86" s="12"/>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="9"/>
+      <c r="A87" s="10"/>
       <c r="B87" s="12"/>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="9"/>
-      <c r="B88" s="12"/>
+      <c r="A88" s="34"/>
+      <c r="B88" s="35"/>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="9"/>
@@ -1267,63 +1559,63 @@
       <c r="B93" s="12"/>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="3"/>
-      <c r="B94" s="4"/>
+      <c r="A94" s="9"/>
+      <c r="B94" s="12"/>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="3"/>
-      <c r="B95" s="4"/>
+      <c r="A95" s="9"/>
+      <c r="B95" s="12"/>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="3"/>
-      <c r="B96" s="4"/>
+      <c r="A96" s="9"/>
+      <c r="B96" s="12"/>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="3"/>
       <c r="B97" s="4"/>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="4"/>
+      <c r="A98" s="3"/>
       <c r="B98" s="4"/>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="29"/>
+      <c r="A99" s="3"/>
       <c r="B99" s="4"/>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="29"/>
+      <c r="A100" s="3"/>
       <c r="B100" s="4"/>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="6"/>
+      <c r="A101" s="4"/>
       <c r="B101" s="4"/>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="6"/>
+      <c r="A102" s="33"/>
       <c r="B102" s="4"/>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="4"/>
+      <c r="A103" s="33"/>
       <c r="B103" s="4"/>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="20"/>
+      <c r="A104" s="6"/>
       <c r="B104" s="4"/>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="20"/>
+      <c r="A105" s="6"/>
       <c r="B105" s="4"/>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="3"/>
+      <c r="A106" s="4"/>
       <c r="B106" s="4"/>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="4"/>
+      <c r="A107" s="20"/>
       <c r="B107" s="4"/>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="3"/>
+      <c r="A108" s="20"/>
       <c r="B108" s="4"/>
     </row>
     <row r="109" spans="1:2">
@@ -1335,11 +1627,11 @@
       <c r="B110" s="4"/>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="4"/>
+      <c r="A111" s="3"/>
       <c r="B111" s="4"/>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="4"/>
+      <c r="A112" s="3"/>
       <c r="B112" s="4"/>
     </row>
     <row r="113" spans="1:2">
@@ -1366,33 +1658,152 @@
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
     </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
+    </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="28"/>
+      <c r="A120" s="4"/>
       <c r="B120" s="4"/>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="28"/>
+      <c r="A121" s="4"/>
       <c r="B121" s="4"/>
     </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="32"/>
+      <c r="B123" s="4"/>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="32"/>
+      <c r="B124" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A48:A49"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
     <hyperlink ref="B1" location="Python!A2" display="Up"/>
+    <hyperlink ref="B31" r:id="rId1"/>
+    <hyperlink ref="B50" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3" tooltip="Python: Getting Started" display="https://app.pluralsight.com/library/courses/python-getting-started"/>
+    <hyperlink ref="B4" r:id="rId4" tooltip="Python Fundamentals" display="https://app.pluralsight.com/library/courses/python-fundamentals"/>
+    <hyperlink ref="B5" r:id="rId5" tooltip="Python – Beyond the Basics" display="https://app.pluralsight.com/library/courses/python-beyond-basics"/>
+    <hyperlink ref="B6" r:id="rId6" tooltip="Understanding Machine Learning with Python" display="https://app.pluralsight.com/library/courses/python-understanding-machine-learning"/>
+    <hyperlink ref="B7" r:id="rId7" tooltip="Advanced Python" display="https://app.pluralsight.com/library/courses/advanced-python"/>
+    <hyperlink ref="B8" r:id="rId8" tooltip="Python Desktop Application Development" display="https://app.pluralsight.com/library/courses/python-desktop-application-development"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="56.5703125" customWidth="1"/>
+    <col min="2" max="2" width="102.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="22" customFormat="1">
+      <c r="A2" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="31"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="31"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="45">
+      <c r="A10" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="45">
+      <c r="A11" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="40"/>
+      <c r="B12" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A11:A12"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A1" location="Topics!A6" display="Topics"/>
+    <hyperlink ref="B1" location="Flask!A2" display="Up"/>
+    <hyperlink ref="B4" r:id="rId2" tooltip="Introduction to the Flask Microframework" display="https://app.pluralsight.com/library/courses/flask-micro-framework-introduction"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Definitions/w-Definitions-Python.xlsx
+++ b/Definitions/w-Definitions-Python.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="97">
   <si>
     <t>Topics</t>
   </si>
@@ -97,15 +97,216 @@
     <t>Installing PyCharm</t>
   </si>
   <si>
-    <t>1. go to web site - http://www.jetbrains.com/pycharm/
-2. click on Download button
-3. Download free community edition of PyCharm
-4. Once downloaded - install it. 
-Installation location: C:\Program Files\JetBrains\PyCharm Community Edition 2017.2.3</t>
-  </si>
-  <si>
-    <t>Console applications, machine learnings applications, scripts, artifical intelligence applications, scientific applications, 
-desktop applications, home automation applications</t>
+    <t>Indentation</t>
+  </si>
+  <si>
+    <t>Python uses indentaton instead of curly braces</t>
+  </si>
+  <si>
+    <t>True values in python</t>
+  </si>
+  <si>
+    <t>1. any non zero integer is true (zero is false)
+2. any non empty string is true</t>
+  </si>
+  <si>
+    <t>Types in python</t>
+  </si>
+  <si>
+    <t>complex, bytes and bytearray
+tuple = (3, 5, 1, "jack") ==&gt; immutable
+set and frozenset
+set([3, 4, 5, 1, 2, 4, 5]) == (1, 2, 3, 4, 5) -&gt; passing list to set will remove duplicates and orders the list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Examlpes </t>
+  </si>
+  <si>
+    <t>Refer README.md in PythonPractice repository in github</t>
+  </si>
+  <si>
+    <t>Python Frameworks</t>
+  </si>
+  <si>
+    <t>Django</t>
+  </si>
+  <si>
+    <t>Flask</t>
+  </si>
+  <si>
+    <t>Python web micro framework</t>
+  </si>
+  <si>
+    <t>Python Pip</t>
+  </si>
+  <si>
+    <t>PyPI</t>
+  </si>
+  <si>
+    <t>Python web framework</t>
+  </si>
+  <si>
+    <t>Flask site</t>
+  </si>
+  <si>
+    <t>http://flask.pocoo.org/</t>
+  </si>
+  <si>
+    <t>Definitions</t>
+  </si>
+  <si>
+    <t>How to install flask package</t>
+  </si>
+  <si>
+    <t>pip</t>
+  </si>
+  <si>
+    <t>package manager for python. This will be installed with Python. Open cmd and type pip3 or pip(python 3), pip(python 2).
+We will install flask using pip.</t>
+  </si>
+  <si>
+    <t>install flask using pip</t>
+  </si>
+  <si>
+    <t>1. open cmd
+2. type "pip install flask"
+3. this will install flask package</t>
+  </si>
+  <si>
+    <t>Successfully installed Jinja2-2.9.6 MarkupSafe-1.0 Werkzeug-0.12.2 click-6.7 flask-0.12.2 itsdangerous-0.24</t>
+  </si>
+  <si>
+    <t>To see all python packages</t>
+  </si>
+  <si>
+    <t>https://pypi.python.org/pypi</t>
+  </si>
+  <si>
+    <t>Virtual Environments</t>
+  </si>
+  <si>
+    <t>Virtual environments allows us to setup independent python environment when we are working on python application.</t>
+  </si>
+  <si>
+    <t>How to work with virtual environments?</t>
+  </si>
+  <si>
+    <t>pip install virtualenv</t>
+  </si>
+  <si>
+    <t>Creating virtual environment</t>
+  </si>
+  <si>
+    <t>type "virtualenv &lt;env_name&gt;" in cmd</t>
+  </si>
+  <si>
+    <t>Example: cmd&gt; virtualenv python3_env</t>
+  </si>
+  <si>
+    <t>virtualenv   --python=python2.7   my_python_course</t>
+  </si>
+  <si>
+    <t>Tip on virtual environments</t>
+  </si>
+  <si>
+    <t>We can keep all python virtual environments in one folder like eclipse workspaces</t>
+  </si>
+  <si>
+    <t>How to use environment</t>
+  </si>
+  <si>
+    <t>cmd&gt; source &lt;virtual_environment_path&gt;/bin/activate</t>
+  </si>
+  <si>
+    <t>Example: cmd&gt; source my_python_course/bin/activate</t>
+  </si>
+  <si>
+    <t>To leave virtual environment</t>
+  </si>
+  <si>
+    <t>type "deactivate"</t>
+  </si>
+  <si>
+    <t>Working with virutal environments in pycharm</t>
+  </si>
+  <si>
+    <t>File -&gt; Settings -&gt; Project Interpreter -&gt; click on gear symbole -&gt; Add Local/Create VirtualEnv</t>
+  </si>
+  <si>
+    <t>pyinstaller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pyinstaller is a python package that allows us to create binary executable file from our python program. It is cross platform, so it will create .exe file for windows and .app file for mac. It also works on linux too. </t>
+  </si>
+  <si>
+    <t>pip install pyinstaller</t>
+  </si>
+  <si>
+    <t>After installing pyinstaller create exe file</t>
+  </si>
+  <si>
+    <t>Go to project location -&gt; pyinstaller mainClassName.py -&gt; Enter</t>
+  </si>
+  <si>
+    <t>This will give warnings, ignore them. 
+Pyinstaller will create build, dist folders, main.spec file. Our .exe will be present in dist/main folder.</t>
+  </si>
+  <si>
+    <t>In the above process pyinstaller will create many files. To avoid that and to create single .exe file</t>
+  </si>
+  <si>
+    <t>pyinstaller --onefile mainFile.py</t>
+  </si>
+  <si>
+    <t>This will create single .exe file in dist/main folder</t>
+  </si>
+  <si>
+    <t>pyinstaller documentation</t>
+  </si>
+  <si>
+    <t>http://www.pyinstaller.org/</t>
+  </si>
+  <si>
+    <t>Creating setup wizard</t>
+  </si>
+  <si>
+    <t>use InnoSetup
+google for InnoSetup</t>
+  </si>
+  <si>
+    <t>TensorFlow</t>
+  </si>
+  <si>
+    <t>PyQT</t>
+  </si>
+  <si>
+    <t>Pluralsight - completed</t>
+  </si>
+  <si>
+    <t>Python Fundamentals</t>
+  </si>
+  <si>
+    <t>Python – Beyond the Basics</t>
+  </si>
+  <si>
+    <t>Introduction to the Flask Microframework</t>
+  </si>
+  <si>
+    <t>Understanding Machine Learning with Python</t>
+  </si>
+  <si>
+    <t>Advanced Python</t>
+  </si>
+  <si>
+    <t>Python Desktop Application Development</t>
+  </si>
+  <si>
+    <t>Projects</t>
+  </si>
+  <si>
+    <t>Console applications, desktop applications,  scripts
+Home automation applications,
+machine learnings applications, artifical intelligence applications, scientific applications,</t>
   </si>
   <si>
     <r>
@@ -134,237 +335,145 @@
 2. Under Downlod -&gt; click on Python 3.6.2 (latest as of 18/Sep/2017)
 3. Download the latest version as per OS
 4. check radio button in installation wizard and click on Install
-5. Once installed open cmd and type -&gt; python --version
+5. Once installed open cmd and type -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>python --version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 6. we should be able to see following output if python installed successfully:
-C:\Users\Admin&gt;python --version
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C:\Users\Admin&gt;python --version
 Python 3.6.2</t>
     </r>
   </si>
   <si>
-    <t>Indentation</t>
-  </si>
-  <si>
-    <t>Python uses indentaton instead of curly braces</t>
-  </si>
-  <si>
-    <t>True values in python</t>
-  </si>
-  <si>
-    <t>1. any non zero integer is true (zero is false)
-2. any non empty string is true</t>
-  </si>
-  <si>
-    <t>Types in python</t>
-  </si>
-  <si>
-    <t>complex, bytes and bytearray
-tuple = (3, 5, 1, "jack") ==&gt; immutable
-set and frozenset
-set([3, 4, 5, 1, 2, 4, 5]) == (1, 2, 3, 4, 5) -&gt; passing list to set will remove duplicates and orders the list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Examlpes </t>
-  </si>
-  <si>
-    <t>Refer README.md in PythonPractice repository in github</t>
-  </si>
-  <si>
-    <t>Python Frameworks</t>
-  </si>
-  <si>
-    <t>Django</t>
-  </si>
-  <si>
-    <t>Flask</t>
-  </si>
-  <si>
-    <t>Python web micro framework</t>
-  </si>
-  <si>
-    <t>Python Pip</t>
-  </si>
-  <si>
-    <t>PyPI</t>
-  </si>
-  <si>
-    <t>Python web framework</t>
-  </si>
-  <si>
-    <t>Flask site</t>
-  </si>
-  <si>
-    <t>http://flask.pocoo.org/</t>
-  </si>
-  <si>
-    <t>Definitions</t>
-  </si>
-  <si>
-    <t>How to install flask package</t>
-  </si>
-  <si>
-    <t>pip</t>
+    <r>
+      <t xml:space="preserve">1. go to web site - http://www.jetbrains.com/pycharm/
+2. click on Download button
+3. Download free community edition of PyCharm
+4. Once downloaded - install it. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Installation location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C:\Program Files\JetBrains\PyCharm Community Edition 2017.2.3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We need to install </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>virtualenv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> package using pip</t>
+    </r>
   </si>
   <si>
     <t>package manager for python. This will be installed with Python. Open cmd and type pip3 or pip(python 3), pip(python 2).
-We will install flask using pip.</t>
-  </si>
-  <si>
-    <t>install flask using pip</t>
-  </si>
-  <si>
-    <t>1. open cmd
-2. type "pip install flask"
-3. this will install flask package</t>
-  </si>
-  <si>
-    <t>Successfully installed Jinja2-2.9.6 MarkupSafe-1.0 Werkzeug-0.12.2 click-6.7 flask-0.12.2 itsdangerous-0.24</t>
-  </si>
-  <si>
-    <t>To see all python packages</t>
-  </si>
-  <si>
-    <t>https://pypi.python.org/pypi</t>
-  </si>
-  <si>
-    <t>Virtual Environments</t>
-  </si>
-  <si>
-    <t>Virtual environments allows us to setup independent python environment when we are working on python application.</t>
-  </si>
-  <si>
-    <t>How to work with virtual environments?</t>
-  </si>
-  <si>
-    <t>We need to install virtualenv package using pip</t>
-  </si>
-  <si>
-    <t>pip install virtualenv</t>
-  </si>
-  <si>
-    <t>Creating virtual environment</t>
-  </si>
-  <si>
-    <t>type "virtualenv &lt;env_name&gt;" in cmd</t>
-  </si>
-  <si>
-    <t>Example: cmd&gt; virtualenv python3_env</t>
-  </si>
-  <si>
-    <t>To specify the python to be used in virtual environment</t>
-  </si>
-  <si>
-    <t>virtualenv   --python=python2.7   my_python_course</t>
-  </si>
-  <si>
-    <t>Tip on virtual environments</t>
-  </si>
-  <si>
-    <t>We can keep all python virtual environments in one folder like eclipse workspaces</t>
-  </si>
-  <si>
-    <t>How to use environment</t>
-  </si>
-  <si>
-    <t>cmd&gt; source &lt;virtual_environment_path&gt;/bin/activate</t>
-  </si>
-  <si>
-    <t>Example: cmd&gt; source my_python_course/bin/activate</t>
-  </si>
-  <si>
-    <t>To leave virtual environment</t>
-  </si>
-  <si>
-    <t>type "deactivate"</t>
-  </si>
-  <si>
-    <t>Working with virutal environments in pycharm</t>
-  </si>
-  <si>
-    <t>File -&gt; Settings -&gt; Project Interpreter -&gt; click on gear symbole -&gt; Add Local/Create VirtualEnv</t>
-  </si>
-  <si>
-    <t>Creating an executable file</t>
-  </si>
-  <si>
-    <t>using pyinstalled</t>
-  </si>
-  <si>
-    <t>pyinstaller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pyinstaller is a python package that allows us to create binary executable file from our python program. It is cross platform, so it will create .exe file for windows and .app file for mac. It also works on linux too. </t>
-  </si>
-  <si>
-    <t>install pyinstaller using</t>
-  </si>
-  <si>
-    <t>pip install pyinstaller</t>
-  </si>
-  <si>
-    <t>After installing pyinstaller create exe file</t>
-  </si>
-  <si>
-    <t>Go to project location -&gt; pyinstaller mainClassName.py -&gt; Enter</t>
-  </si>
-  <si>
-    <t>This will give warnings, ignore them. 
-Pyinstaller will create build, dist folders, main.spec file. Our .exe will be present in dist/main folder.</t>
-  </si>
-  <si>
-    <t>In the above process pyinstaller will create many files. To avoid that and to create single .exe file</t>
-  </si>
-  <si>
-    <t>pyinstaller --onefile mainFile.py</t>
-  </si>
-  <si>
-    <t>This will create single .exe file in dist/main folder</t>
-  </si>
-  <si>
-    <t>pyinstaller documentation</t>
-  </si>
-  <si>
-    <t>http://www.pyinstaller.org/</t>
-  </si>
-  <si>
-    <t>Creating setup wizard</t>
-  </si>
-  <si>
-    <t>use InnoSetup
-google for InnoSetup</t>
-  </si>
-  <si>
-    <t>TensorFlow</t>
-  </si>
-  <si>
-    <t>PyQT</t>
-  </si>
-  <si>
-    <t>Pluralsight - completed</t>
-  </si>
-  <si>
-    <t>Python Fundamentals</t>
-  </si>
-  <si>
-    <t>Python – Beyond the Basics</t>
-  </si>
-  <si>
-    <t>Introduction to the Flask Microframework</t>
-  </si>
-  <si>
-    <t>Understanding Machine Learning with Python</t>
-  </si>
-  <si>
-    <t>Advanced Python</t>
-  </si>
-  <si>
-    <t>Python Desktop Application Development</t>
+We will install flask(and other packages) using pip.</t>
+  </si>
+  <si>
+    <t>To specify the python version to be used in virtual environment</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pyinstaller</t>
+    </r>
+  </si>
+  <si>
+    <t>How to Create an executable file for python project</t>
+  </si>
+  <si>
+    <t>install pyinstaller using pip</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,6 +518,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000CC"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -527,7 +651,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -602,6 +726,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -640,6 +771,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000CC"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -958,45 +1094,45 @@
       <c r="A3" s="22"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="30"/>
+      <c r="A4" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="33"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="27" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="18" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="18" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1015,11 +1151,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B124"/>
+  <dimension ref="A1:B125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1037,14 +1173,14 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="34"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="28" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>5</v>
@@ -1055,7 +1191,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1063,7 +1199,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1071,7 +1207,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1079,7 +1215,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="28" customFormat="1">
@@ -1087,7 +1223,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="28" customFormat="1">
@@ -1099,8 +1235,10 @@
       <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
+      <c r="A11" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="34"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="7"/>
@@ -1123,17 +1261,17 @@
       <c r="B16" s="5"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="31"/>
-    </row>
-    <row r="18" spans="1:2" ht="30">
+      <c r="B17" s="34"/>
+    </row>
+    <row r="18" spans="1:2" ht="45">
       <c r="A18" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>23</v>
+      <c r="B18" s="30" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1164,8 +1302,8 @@
       <c r="A22" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>24</v>
+      <c r="B22" s="30" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="8" customFormat="1" ht="60">
@@ -1196,227 +1334,231 @@
       <c r="A26" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>22</v>
+      <c r="B26" s="30" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
       <c r="A28" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="60">
       <c r="A29" s="25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="25" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>50</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="32" customFormat="1" ht="30">
+      <c r="A31" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="42"/>
+      <c r="B35" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="12" t="s">
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="42" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="39" t="s">
+      <c r="B36" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="12" t="s">
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="42"/>
+      <c r="B37" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="39"/>
-      <c r="B34" s="12" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="39" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B39" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="39"/>
-      <c r="B36" s="12" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="42" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="9" t="s">
+      <c r="B40" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="12" t="s">
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="42"/>
+      <c r="B41" s="12" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="39"/>
-      <c r="B40" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30">
+      <c r="A45" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B47" s="12" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="26" t="s">
+    <row r="48" spans="1:2" ht="30">
+      <c r="A48" s="39"/>
+      <c r="B48" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B43" s="12" t="s">
+    </row>
+    <row r="49" spans="1:2" ht="30" customHeight="1">
+      <c r="A49" s="39" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="30">
-      <c r="A44" s="12" t="s">
+      <c r="B49" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="12" t="s">
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="39"/>
+      <c r="B50" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="12" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B51" s="29" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="36" t="s">
+    <row r="52" spans="1:2" ht="30">
+      <c r="A52" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B52" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="30">
-      <c r="A47" s="36"/>
-      <c r="B47" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="30" customHeight="1">
-      <c r="A48" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="36"/>
-      <c r="B49" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B50" s="29" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="30">
-      <c r="A51" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="9"/>
-      <c r="B52" s="14"/>
-    </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="11"/>
-      <c r="B53" s="12"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="14"/>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="9"/>
-      <c r="B54" s="14"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="12"/>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="9"/>
       <c r="B55" s="14"/>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="37"/>
-      <c r="B56" s="38"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="14"/>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="17"/>
-      <c r="B57" s="16"/>
+      <c r="A57" s="40"/>
+      <c r="B57" s="41"/>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="9"/>
-      <c r="B58" s="15"/>
+      <c r="A58" s="17"/>
+      <c r="B58" s="16"/>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="9"/>
@@ -1440,15 +1582,15 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="9"/>
-      <c r="B64" s="14"/>
+      <c r="B64" s="15"/>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="37"/>
-      <c r="B65" s="38"/>
+      <c r="A65" s="9"/>
+      <c r="B65" s="14"/>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="11"/>
-      <c r="B66" s="12"/>
+      <c r="A66" s="40"/>
+      <c r="B66" s="41"/>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="11"/>
@@ -1459,7 +1601,7 @@
       <c r="B68" s="12"/>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="9"/>
+      <c r="A69" s="11"/>
       <c r="B69" s="12"/>
     </row>
     <row r="70" spans="1:2">
@@ -1479,11 +1621,11 @@
       <c r="B73" s="12"/>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="11"/>
+      <c r="A74" s="9"/>
       <c r="B74" s="12"/>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="9"/>
+      <c r="A75" s="11"/>
       <c r="B75" s="12"/>
     </row>
     <row r="76" spans="1:2">
@@ -1491,43 +1633,43 @@
       <c r="B76" s="12"/>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="19"/>
-      <c r="B77" s="13"/>
+      <c r="A77" s="9"/>
+      <c r="B77" s="12"/>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="19"/>
       <c r="B78" s="13"/>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="11"/>
-      <c r="B79" s="12"/>
+      <c r="A79" s="19"/>
+      <c r="B79" s="13"/>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="9"/>
+      <c r="A80" s="11"/>
       <c r="B80" s="12"/>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="19"/>
-      <c r="B81" s="21"/>
+      <c r="A81" s="9"/>
+      <c r="B81" s="12"/>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="19"/>
       <c r="B82" s="21"/>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="11"/>
-      <c r="B83" s="12"/>
+      <c r="A83" s="19"/>
+      <c r="B83" s="21"/>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="11"/>
       <c r="B84" s="12"/>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="9"/>
+      <c r="A85" s="11"/>
       <c r="B85" s="12"/>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="10"/>
+      <c r="A86" s="9"/>
       <c r="B86" s="12"/>
     </row>
     <row r="87" spans="1:2">
@@ -1535,12 +1677,12 @@
       <c r="B87" s="12"/>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="34"/>
-      <c r="B88" s="35"/>
+      <c r="A88" s="10"/>
+      <c r="B88" s="12"/>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="9"/>
-      <c r="B89" s="12"/>
+      <c r="A89" s="37"/>
+      <c r="B89" s="38"/>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="9"/>
@@ -1571,8 +1713,8 @@
       <c r="B96" s="12"/>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="3"/>
-      <c r="B97" s="4"/>
+      <c r="A97" s="9"/>
+      <c r="B97" s="12"/>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="3"/>
@@ -1587,19 +1729,19 @@
       <c r="B100" s="4"/>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="4"/>
+      <c r="A101" s="3"/>
       <c r="B101" s="4"/>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="33"/>
+      <c r="A102" s="4"/>
       <c r="B102" s="4"/>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="33"/>
+      <c r="A103" s="36"/>
       <c r="B103" s="4"/>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="6"/>
+      <c r="A104" s="36"/>
       <c r="B104" s="4"/>
     </row>
     <row r="105" spans="1:2">
@@ -1607,11 +1749,11 @@
       <c r="B105" s="4"/>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="4"/>
+      <c r="A106" s="6"/>
       <c r="B106" s="4"/>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="20"/>
+      <c r="A107" s="4"/>
       <c r="B107" s="4"/>
     </row>
     <row r="108" spans="1:2">
@@ -1619,15 +1761,15 @@
       <c r="B108" s="4"/>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="3"/>
+      <c r="A109" s="20"/>
       <c r="B109" s="4"/>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="4"/>
+      <c r="A110" s="3"/>
       <c r="B110" s="4"/>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="3"/>
+      <c r="A111" s="4"/>
       <c r="B111" s="4"/>
     </row>
     <row r="112" spans="1:2">
@@ -1635,7 +1777,7 @@
       <c r="B112" s="4"/>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="4"/>
+      <c r="A113" s="3"/>
       <c r="B113" s="4"/>
     </row>
     <row r="114" spans="1:2">
@@ -1670,35 +1812,39 @@
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
     </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="32"/>
-      <c r="B123" s="4"/>
+    <row r="122" spans="1:2">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="32"/>
+      <c r="A124" s="35"/>
       <c r="B124" s="4"/>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="35"/>
+      <c r="B125" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="A103:A104"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A49:A50"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
     <hyperlink ref="B1" location="Python!A2" display="Up"/>
-    <hyperlink ref="B31" r:id="rId1"/>
-    <hyperlink ref="B50" r:id="rId2"/>
+    <hyperlink ref="B32" r:id="rId1"/>
+    <hyperlink ref="B51" r:id="rId2"/>
     <hyperlink ref="B3" r:id="rId3" tooltip="Python: Getting Started" display="https://app.pluralsight.com/library/courses/python-getting-started"/>
     <hyperlink ref="B4" r:id="rId4" tooltip="Python Fundamentals" display="https://app.pluralsight.com/library/courses/python-fundamentals"/>
     <hyperlink ref="B5" r:id="rId5" tooltip="Python – Beyond the Basics" display="https://app.pluralsight.com/library/courses/python-beyond-basics"/>
@@ -1717,7 +1863,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1735,17 +1881,17 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="22" customFormat="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="34"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1753,43 +1899,43 @@
         <v>4</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="31"/>
+      <c r="A8" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="34"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="45">
       <c r="A10" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="45">
+      <c r="A11" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="9" t="s">
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="43"/>
+      <c r="B12" s="22" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="40"/>
-      <c r="B12" s="22" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Definitions/w-Definitions-Python.xlsx
+++ b/Definitions/w-Definitions-Python.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="99">
   <si>
     <t>Topics</t>
   </si>
@@ -467,6 +467,12 @@
   </si>
   <si>
     <t>install pyinstaller using pip</t>
+  </si>
+  <si>
+    <t>https://github.com/avinashbabudonthu/PythonPractice.git</t>
+  </si>
+  <si>
+    <t>Github</t>
   </si>
 </sst>
 </file>
@@ -651,7 +657,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -733,6 +739,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -764,6 +771,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1094,10 +1104,10 @@
       <c r="A3" s="22"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="33"/>
+      <c r="B4" s="34"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="18" t="s">
@@ -1154,8 +1164,8 @@
   <dimension ref="A1:B125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1173,10 +1183,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="28" t="s">
@@ -1235,36 +1245,40 @@
       <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="34"/>
+      <c r="B11" s="35"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="7"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="7"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="7"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="5"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="7"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="5"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="34"/>
+      <c r="B17" s="35"/>
     </row>
     <row r="18" spans="1:2" ht="45">
       <c r="A18" s="9" t="s">
@@ -1395,7 +1409,7 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="43" t="s">
         <v>50</v>
       </c>
       <c r="B34" s="30" t="s">
@@ -1403,13 +1417,13 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="42"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="12" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="43" t="s">
         <v>52</v>
       </c>
       <c r="B36" s="12" t="s">
@@ -1417,7 +1431,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="42"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="12" t="s">
         <v>54</v>
       </c>
@@ -1439,7 +1453,7 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="43" t="s">
         <v>58</v>
       </c>
       <c r="B40" s="12" t="s">
@@ -1447,7 +1461,7 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="42"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="12" t="s">
         <v>60</v>
       </c>
@@ -1493,7 +1507,7 @@
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="39" t="s">
+      <c r="A47" s="40" t="s">
         <v>68</v>
       </c>
       <c r="B47" s="12" t="s">
@@ -1501,13 +1515,13 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="30">
-      <c r="A48" s="39"/>
+      <c r="A48" s="40"/>
       <c r="B48" s="12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="30" customHeight="1">
-      <c r="A49" s="39" t="s">
+      <c r="A49" s="40" t="s">
         <v>71</v>
       </c>
       <c r="B49" s="12" t="s">
@@ -1515,7 +1529,7 @@
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="39"/>
+      <c r="A50" s="40"/>
       <c r="B50" s="12" t="s">
         <v>73</v>
       </c>
@@ -1553,8 +1567,8 @@
       <c r="B56" s="14"/>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="40"/>
-      <c r="B57" s="41"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="42"/>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="17"/>
@@ -1589,8 +1603,8 @@
       <c r="B65" s="14"/>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="40"/>
-      <c r="B66" s="41"/>
+      <c r="A66" s="41"/>
+      <c r="B66" s="42"/>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="11"/>
@@ -1681,8 +1695,8 @@
       <c r="B88" s="12"/>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="37"/>
-      <c r="B89" s="38"/>
+      <c r="A89" s="38"/>
+      <c r="B89" s="39"/>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="9"/>
@@ -1737,11 +1751,11 @@
       <c r="B102" s="4"/>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="36"/>
+      <c r="A103" s="37"/>
       <c r="B103" s="4"/>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="36"/>
+      <c r="A104" s="37"/>
       <c r="B104" s="4"/>
     </row>
     <row r="105" spans="1:2">
@@ -1817,11 +1831,11 @@
       <c r="B122" s="4"/>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="35"/>
+      <c r="A124" s="36"/>
       <c r="B124" s="4"/>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="35"/>
+      <c r="A125" s="36"/>
       <c r="B125" s="4"/>
     </row>
   </sheetData>
@@ -1851,9 +1865,10 @@
     <hyperlink ref="B6" r:id="rId6" tooltip="Understanding Machine Learning with Python" display="https://app.pluralsight.com/library/courses/python-understanding-machine-learning"/>
     <hyperlink ref="B7" r:id="rId7" tooltip="Advanced Python" display="https://app.pluralsight.com/library/courses/advanced-python"/>
     <hyperlink ref="B8" r:id="rId8" tooltip="Python Desktop Application Development" display="https://app.pluralsight.com/library/courses/python-desktop-application-development"/>
+    <hyperlink ref="B12" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -1881,10 +1896,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="22" customFormat="1">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="22" t="s">
@@ -1903,10 +1918,10 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="34"/>
+      <c r="B8" s="35"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="22" t="s">
@@ -1925,7 +1940,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="44" t="s">
         <v>43</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -1933,7 +1948,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="43"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="22" t="s">
         <v>45</v>
       </c>

--- a/Definitions/w-Definitions-Python.xlsx
+++ b/Definitions/w-Definitions-Python.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="102">
   <si>
     <t>Topics</t>
   </si>
@@ -122,9 +122,6 @@
     <t xml:space="preserve">Examlpes </t>
   </si>
   <si>
-    <t>Refer README.md in PythonPractice repository in github</t>
-  </si>
-  <si>
     <t>Python Frameworks</t>
   </si>
   <si>
@@ -159,10 +156,6 @@
   </si>
   <si>
     <t>pip</t>
-  </si>
-  <si>
-    <t>package manager for python. This will be installed with Python. Open cmd and type pip3 or pip(python 3), pip(python 2).
-We will install flask using pip.</t>
   </si>
   <si>
     <t>install flask using pip</t>
@@ -215,18 +208,9 @@
     <t>How to use environment</t>
   </si>
   <si>
-    <t>cmd&gt; source &lt;virtual_environment_path&gt;/bin/activate</t>
-  </si>
-  <si>
-    <t>Example: cmd&gt; source my_python_course/bin/activate</t>
-  </si>
-  <si>
     <t>To leave virtual environment</t>
   </si>
   <si>
-    <t>type "deactivate"</t>
-  </si>
-  <si>
     <t>Working with virutal environments in pycharm</t>
   </si>
   <si>
@@ -234,9 +218,6 @@
   </si>
   <si>
     <t>pyinstaller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pyinstaller is a python package that allows us to create binary executable file from our python program. It is cross platform, so it will create .exe file for windows and .app file for mac. It also works on linux too. </t>
   </si>
   <si>
     <t>pip install pyinstaller</t>
@@ -255,9 +236,6 @@
     <t>In the above process pyinstaller will create many files. To avoid that and to create single .exe file</t>
   </si>
   <si>
-    <t>pyinstaller --onefile mainFile.py</t>
-  </si>
-  <si>
     <t>This will create single .exe file in dist/main folder</t>
   </si>
   <si>
@@ -302,11 +280,6 @@
   </si>
   <si>
     <t>Projects</t>
-  </si>
-  <si>
-    <t>Console applications, desktop applications,  scripts
-Home automation applications,
-machine learnings applications, artifical intelligence applications, scientific applications,</t>
   </si>
   <si>
     <r>
@@ -374,7 +347,94 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1. go to web site - http://www.jetbrains.com/pycharm/
+      <t xml:space="preserve">We need to install </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>virtualenv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> package using pip</t>
+    </r>
+  </si>
+  <si>
+    <t>package manager for python. This will be installed with Python. Open cmd and type pip3 or pip(python 3), pip(python 2).
+We will install flask(and other packages) using pip.</t>
+  </si>
+  <si>
+    <t>To specify the python version to be used in virtual environment</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pyinstaller</t>
+    </r>
+  </si>
+  <si>
+    <t>How to Create an executable file for python project</t>
+  </si>
+  <si>
+    <t>install pyinstaller using pip</t>
+  </si>
+  <si>
+    <t>https://github.com/avinashbabudonthu/PythonPractice.git</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>Console applications, desktop applications,  Scripts
+Home automation applications
+machine learnings applications, artifical intelligence applications, scientific applications,</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. go to web site - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://www.jetbrains.com/pycharm/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 2. click on Download button
 3. Download free community edition of PyCharm
 4. Once downloaded - install it. 
@@ -415,7 +475,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">We need to install </t>
+      <t xml:space="preserve">Refer README.md in </t>
     </r>
     <r>
       <rPr>
@@ -426,7 +486,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>virtualenv</t>
+      <t>github -&gt; PythonPractice</t>
     </r>
     <r>
       <rPr>
@@ -436,43 +496,38 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> package using pip</t>
+      <t xml:space="preserve"> repository </t>
     </r>
   </si>
   <si>
-    <t>package manager for python. This will be installed with Python. Open cmd and type pip3 or pip(python 3), pip(python 2).
-We will install flask(and other packages) using pip.</t>
-  </si>
-  <si>
-    <t>To specify the python version to be used in virtual environment</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">using </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pyinstaller</t>
-    </r>
-  </si>
-  <si>
-    <t>How to Create an executable file for python project</t>
-  </si>
-  <si>
-    <t>install pyinstaller using pip</t>
-  </si>
-  <si>
-    <t>https://github.com/avinashbabudonthu/PythonPractice.git</t>
-  </si>
-  <si>
-    <t>Github</t>
+    <t>cmd&gt; [virtual_environment_path]/bin/activate.bat</t>
+  </si>
+  <si>
+    <t>Example: cmd&gt; my_python_course/bin/activate.bat</t>
+  </si>
+  <si>
+    <t>run deactivate.bat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pyinstaller is a python package that allows us to create binary executable file from our python program. 
+It is cross platform, so it will create .exe file for windows and .app file for mac. It also works on linux too. </t>
+  </si>
+  <si>
+    <t>pyinstaller   --onefile   mainFile.py</t>
+  </si>
+  <si>
+    <t>using pip (python package manager)</t>
+  </si>
+  <si>
+    <t>package manager for python. This will be installed with Python. 
+Open cmd and type pip3 or pip(python 3), pip(python 2). 
+We will install flask using pip.</t>
+  </si>
+  <si>
+    <t>To check the pip version</t>
+  </si>
+  <si>
+    <t>python3:   pip   --version (or) pip3   --version (or) pip   -V (or) pip3 -V</t>
   </si>
 </sst>
 </file>
@@ -657,7 +712,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -740,40 +795,44 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1104,45 +1163,45 @@
       <c r="A3" s="22"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="34"/>
+      <c r="A4" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="37"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>32</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="18" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="18" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1161,11 +1220,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B125"/>
+  <dimension ref="A1:B126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1183,14 +1242,14 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="38"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="28" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>5</v>
@@ -1201,7 +1260,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1209,7 +1268,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1217,7 +1276,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1225,7 +1284,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="28" customFormat="1">
@@ -1233,7 +1292,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="28" customFormat="1">
@@ -1245,17 +1304,17 @@
       <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="35"/>
+      <c r="A11" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="38"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" s="45" t="s">
-        <v>97</v>
+        <v>89</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1275,17 +1334,17 @@
       <c r="B16" s="5"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="35"/>
+      <c r="B17" s="38"/>
     </row>
     <row r="18" spans="1:2" ht="45">
       <c r="A18" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="30" t="s">
-        <v>88</v>
+      <c r="B18" s="34" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1317,7 +1376,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="8" customFormat="1" ht="60">
@@ -1348,8 +1407,8 @@
       <c r="A26" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="30" t="s">
-        <v>90</v>
+      <c r="B26" s="34" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1380,203 +1439,207 @@
       <c r="A30" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>29</v>
+      <c r="B30" s="34" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:2" s="32" customFormat="1" ht="30">
       <c r="A31" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>47</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="35" customFormat="1">
+      <c r="A32" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B35" s="30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="46"/>
+      <c r="B36" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="43" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="43"/>
-      <c r="B35" s="12" t="s">
+      <c r="B37" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="43" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="46"/>
+      <c r="B38" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="12" t="s">
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="43"/>
-      <c r="B37" s="12" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="26" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="9" t="s">
+      <c r="B40" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="B38" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="43"/>
-      <c r="B41" s="12" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>62</v>
+      <c r="A42" s="46"/>
+      <c r="B42" s="34" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30">
+      <c r="A46" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="12" t="s">
+    </row>
+    <row r="49" spans="1:2" ht="30">
+      <c r="A49" s="43"/>
+      <c r="B49" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="B44" s="30" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="12" t="s">
+    <row r="50" spans="1:2" ht="30" customHeight="1">
+      <c r="A50" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B50" s="34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="43"/>
+      <c r="B51" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="B46" s="12" t="s">
+    <row r="52" spans="1:2">
+      <c r="A52" s="12" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="40" t="s">
+      <c r="B52" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="12" t="s">
+    </row>
+    <row r="53" spans="1:2" ht="30">
+      <c r="A53" s="12" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="30">
-      <c r="A48" s="40"/>
-      <c r="B48" s="12" t="s">
+      <c r="B53" s="12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="30" customHeight="1">
-      <c r="A49" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="40"/>
-      <c r="B50" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B51" s="29" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="30">
-      <c r="A52" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="9"/>
-      <c r="B53" s="14"/>
-    </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="11"/>
-      <c r="B54" s="12"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="14"/>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="9"/>
-      <c r="B55" s="14"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="12"/>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="9"/>
       <c r="B56" s="14"/>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="41"/>
-      <c r="B57" s="42"/>
+      <c r="A57" s="9"/>
+      <c r="B57" s="14"/>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="17"/>
-      <c r="B58" s="16"/>
+      <c r="A58" s="44"/>
+      <c r="B58" s="45"/>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="9"/>
-      <c r="B59" s="15"/>
+      <c r="A59" s="17"/>
+      <c r="B59" s="16"/>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="9"/>
@@ -1600,15 +1663,15 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="9"/>
-      <c r="B65" s="14"/>
+      <c r="B65" s="15"/>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="41"/>
-      <c r="B66" s="42"/>
+      <c r="A66" s="9"/>
+      <c r="B66" s="14"/>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="11"/>
-      <c r="B67" s="12"/>
+      <c r="A67" s="44"/>
+      <c r="B67" s="45"/>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="11"/>
@@ -1619,7 +1682,7 @@
       <c r="B69" s="12"/>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="9"/>
+      <c r="A70" s="11"/>
       <c r="B70" s="12"/>
     </row>
     <row r="71" spans="1:2">
@@ -1639,11 +1702,11 @@
       <c r="B74" s="12"/>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="11"/>
+      <c r="A75" s="9"/>
       <c r="B75" s="12"/>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="9"/>
+      <c r="A76" s="11"/>
       <c r="B76" s="12"/>
     </row>
     <row r="77" spans="1:2">
@@ -1651,43 +1714,43 @@
       <c r="B77" s="12"/>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="19"/>
-      <c r="B78" s="13"/>
+      <c r="A78" s="9"/>
+      <c r="B78" s="12"/>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="19"/>
       <c r="B79" s="13"/>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="11"/>
-      <c r="B80" s="12"/>
+      <c r="A80" s="19"/>
+      <c r="B80" s="13"/>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="9"/>
+      <c r="A81" s="11"/>
       <c r="B81" s="12"/>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="19"/>
-      <c r="B82" s="21"/>
+      <c r="A82" s="9"/>
+      <c r="B82" s="12"/>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="19"/>
       <c r="B83" s="21"/>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="11"/>
-      <c r="B84" s="12"/>
+      <c r="A84" s="19"/>
+      <c r="B84" s="21"/>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="11"/>
       <c r="B85" s="12"/>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="9"/>
+      <c r="A86" s="11"/>
       <c r="B86" s="12"/>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="10"/>
+      <c r="A87" s="9"/>
       <c r="B87" s="12"/>
     </row>
     <row r="88" spans="1:2">
@@ -1695,12 +1758,12 @@
       <c r="B88" s="12"/>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="38"/>
-      <c r="B89" s="39"/>
+      <c r="A89" s="10"/>
+      <c r="B89" s="12"/>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="9"/>
-      <c r="B90" s="12"/>
+      <c r="A90" s="41"/>
+      <c r="B90" s="42"/>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="9"/>
@@ -1731,8 +1794,8 @@
       <c r="B97" s="12"/>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="3"/>
-      <c r="B98" s="4"/>
+      <c r="A98" s="9"/>
+      <c r="B98" s="12"/>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="3"/>
@@ -1747,19 +1810,19 @@
       <c r="B101" s="4"/>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="4"/>
+      <c r="A102" s="3"/>
       <c r="B102" s="4"/>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="37"/>
+      <c r="A103" s="4"/>
       <c r="B103" s="4"/>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="37"/>
+      <c r="A104" s="40"/>
       <c r="B104" s="4"/>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="6"/>
+      <c r="A105" s="40"/>
       <c r="B105" s="4"/>
     </row>
     <row r="106" spans="1:2">
@@ -1767,11 +1830,11 @@
       <c r="B106" s="4"/>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="4"/>
+      <c r="A107" s="6"/>
       <c r="B107" s="4"/>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="20"/>
+      <c r="A108" s="4"/>
       <c r="B108" s="4"/>
     </row>
     <row r="109" spans="1:2">
@@ -1779,15 +1842,15 @@
       <c r="B109" s="4"/>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="3"/>
+      <c r="A110" s="20"/>
       <c r="B110" s="4"/>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="4"/>
+      <c r="A111" s="3"/>
       <c r="B111" s="4"/>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="3"/>
+      <c r="A112" s="4"/>
       <c r="B112" s="4"/>
     </row>
     <row r="113" spans="1:2">
@@ -1795,7 +1858,7 @@
       <c r="B113" s="4"/>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="4"/>
+      <c r="A114" s="3"/>
       <c r="B114" s="4"/>
     </row>
     <row r="115" spans="1:2">
@@ -1830,35 +1893,39 @@
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
     </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="36"/>
-      <c r="B124" s="4"/>
+    <row r="123" spans="1:2">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="36"/>
+      <c r="A125" s="39"/>
       <c r="B125" s="4"/>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="39"/>
+      <c r="B126" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="A104:A105"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A50:A51"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
     <hyperlink ref="B1" location="Python!A2" display="Up"/>
-    <hyperlink ref="B32" r:id="rId1"/>
-    <hyperlink ref="B51" r:id="rId2"/>
+    <hyperlink ref="B33" r:id="rId1"/>
+    <hyperlink ref="B52" r:id="rId2"/>
     <hyperlink ref="B3" r:id="rId3" tooltip="Python: Getting Started" display="https://app.pluralsight.com/library/courses/python-getting-started"/>
     <hyperlink ref="B4" r:id="rId4" tooltip="Python Fundamentals" display="https://app.pluralsight.com/library/courses/python-fundamentals"/>
     <hyperlink ref="B5" r:id="rId5" tooltip="Python – Beyond the Basics" display="https://app.pluralsight.com/library/courses/python-beyond-basics"/>
@@ -1878,7 +1945,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:B10"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1896,17 +1963,17 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="22" customFormat="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="38"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>37</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1914,43 +1981,43 @@
         <v>4</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="35"/>
+      <c r="A8" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="38"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="45">
       <c r="A10" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="45">
+      <c r="A11" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B11" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="44" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="47"/>
+      <c r="B12" s="22" t="s">
         <v>43</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="44"/>
-      <c r="B12" s="22" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
